--- a/data/outputs/dordogne/dordogne.xlsx
+++ b/data/outputs/dordogne/dordogne.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,16 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>birthplace</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>deathplace</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>mainplace</t>
         </is>
       </c>
@@ -473,6 +483,16 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>Saint-Aignan d'Hautefort</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Sainte-Anne de la Pocatière (Qc)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>HAUTEFORT (24390)</t>
         </is>
       </c>
@@ -493,7 +513,9 @@
           <t>ARNAUD dit Saint-Jean, Jean. Né vers 1733. Fils de Jean Arnaud et de Marie-Jeanne Janneton. Marié à 1) Angélique Desnoyers dite Desmarais, à Saint-Charles (Qc), le 26-04-1763. 2) Marguerite Seguin dite Laterreur, à Saint-Denis (Qc), le 12-10-1795. Contrat de mariage le 03-10-1795 (greff e Christophe Michaud.). Réside dans la paroisse Saint-Hyacinthe. Pas de descendance. (NR)</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
         <is>
           <t>PÉRIGUEUX (24000)</t>
         </is>
@@ -515,7 +537,9 @@
           <t>AUMAITRE ou OMAITRE ou HOMET dit Saint-Pierre, Pierre. Soldat. Fils de Géraud ou Girard Omaitre et de Marie-Antoinette Conte ou Lecompte. Marié à 1) Marie-Anne Paquet, à Québec, le 16-03-1757.Un enfant. 2) Marie-Josèphe Chamberlan, à Québec, le 19-11-1764. Contrat de mariage le 06-11-1764 (greff e Michel Lapailleur). Soldat du régiment de Guyenne, compagnie de Saint-Vincent. (NR-J.N. BIRABEN)</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
         <is>
           <t>SAINT-RABIER (24210)</t>
         </is>
@@ -537,7 +561,9 @@
           <t>BALAN dit Lacombe, Pierre. Né vers 1645. Fils de Pierre Balan et de Perrine Courier. Marié à Renée Biret, à Notre-Dame de Québec, le 09-06-1672. Ils eurent neuf enfants d’où encore aujourd’hui une nombreuse descendance au Québec qui porte le patronyme de Lacombe. Soldat au régiment de Carignan, compagnie La Brisardière. (NR-J.N. BIRABEN)</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
         <is>
           <t>CANTILLAC (24530)</t>
         </is>
@@ -561,6 +587,16 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>Données inconnues</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Lachine (Qc)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>THIVIERS (24380)</t>
         </is>
       </c>
@@ -583,6 +619,16 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>La Cité</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Montréal</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>PÉRIGUEUX (24000)</t>
         </is>
       </c>
@@ -605,6 +651,16 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>paroisse St-Antoine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Pointe-aux-Trembles (Qc)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>LA TOUR-BLANCHE (24320)</t>
         </is>
       </c>
@@ -625,7 +681,9 @@
           <t>BEAU, Etienne-Antoine. Fils de Pierre Beau et de Marie Laforge. Marié à Marie-Josette Remillard, à St-Valier (Qc), le 17-01-1763. Contrat de mariage le 15-12-1762 (greff e Joseph Fortier). Il s’est engagé à 12 ans comme matelot et arrive à Gaspé (Qc). Les descendants prendront le patronyme de Lebeau. (NR-GÉNÉNALOGIE LEBEAU)</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
         <is>
           <t>CHÂTEAU-L’ÉVÊQUE (24460)</t>
         </is>
@@ -649,6 +707,16 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>QUEYSSAC (24140)</t>
         </is>
       </c>
@@ -671,6 +739,16 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>Saint-Hilaire</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Contrecoeur</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>SARRAZAC (24800)</t>
         </is>
       </c>
@@ -691,7 +769,9 @@
           <t>BENOIT, Anne. Fille de Jean Benoit et de Jeanne-Marie Périer. Elle devait épouser Louis Cussac qui devait arriver de France. Mais il n’est jamais venu au Canada. Marié à Antoine-Joseph Delbard dit Saint-Antoine, à Québec, le 11-01-1751. Contrat de mariage le 10-01-17 (greff e Claude Barolet). (NR)</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
         <is>
           <t>SAINT-AULAYE (24410)</t>
         </is>
@@ -715,6 +795,16 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>BOUTEILLES-SAINT-SÉBASTIEN (24320)</t>
         </is>
       </c>
@@ -735,7 +825,13 @@
           <t>BERTHIER, Isaac-Alexandre. Né en1638. Fils de Pierre Berthier et de Marguerite Banliac. Capitaine de compagnie. Marié à Marguerite Legardeur de Tilly, à Notre-Dame de Québec, le 11-10-1672. Il participa à plusieurs expéditions chez les Iroquois. Il est le fondateur de Berthierville. Décédé le 12-12-1708 à Berthier-en-Bas. Plaque commémorative, échelle de crue, rue du port. (DBC-VOIR CHAPITRE 1)</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Berthier-en-Bas</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>BERGERAC (24100)</t>
         </is>
@@ -759,6 +855,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>paroisse de la Limougeanne</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>PÉRIGUEUX (24000)</t>
         </is>
       </c>
@@ -779,7 +881,9 @@
           <t>BOURGOIN, Pierre. Né vers 1742. Fils de Pierre Bourgoin et de Marie Bertrand. Marié à Véronique Beauchamp, à Lachenay (Qc), le 23-02-1767. Sans descendance. (NR-J.N. BIRABEN)</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
         <is>
           <t>SAINT-MICHEL-DE-DOUBLE (24400)</t>
         </is>
@@ -803,6 +907,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>Saint-Martindu-Pin</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>NONTRON (24300)</t>
         </is>
       </c>
@@ -825,6 +935,16 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Le Pizou</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>LE PIZOU (24700)</t>
         </is>
       </c>
@@ -847,6 +967,16 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>Paroisse Saint-Georges</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Hôpital Général de Montréal</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>PÉRIGUEUX (24000)</t>
         </is>
       </c>
@@ -867,7 +997,9 @@
           <t>BUY dit Lavergne, Laurent. Né vers 1641. Fils de Pierre Buy et de Françoise (nom inconnu). Marié à Anthoine Denise, fi lle du Roy, à Champlain (Qc), le 11-10-1670. Contrat de mariage (greff e Larue). Il arrive en Nouvelle-France comme sergent du régiment de Carignan-Salières, compagnie de Saint-Ours. Après son décès, son épouse se remarie, avec un soldat de la même compagnie, Mathurin Banlier dit Laperle. (NR-J.N. BIRABEN)</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
         <is>
           <t>SAINT-JEAN-DE-CÔLE (24800)</t>
         </is>
@@ -891,6 +1023,16 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>Paroisse Saint-Jean</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Hôtel-Dieu de Québec</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>BIGAROQUE (24220)</t>
         </is>
       </c>
@@ -911,7 +1053,13 @@
           <t>CARRIER, Léonard. Né vers 1700. Fils de Jean Carrier et de Claudine Tourangeau. Marié à Marie-Madeleine Bussière ou Bossière, à Saint-Pierre, Ile-d’Orléans (Qc), le 10-01-1752. C’est le quatrième mari de celle-ci. Décédé à Saint-Jean-Deschaillons (Qc), le 30-03-1776. Pas de descendance. (NR-J.N. BIRABEN)</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Saint-Jean-Deschaillons (Qc)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
         <is>
           <t>BEAURONNE (24400)</t>
         </is>
@@ -935,6 +1083,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>Eymet, France</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>EYMET (24500)</t>
         </is>
       </c>
@@ -957,6 +1111,16 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>Faubourg de la Madeleine</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>BERGERAC (24100)</t>
         </is>
       </c>
@@ -979,6 +1143,16 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Hôtel-Dieu de Québec</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>SARLANDE (24270)</t>
         </is>
       </c>
@@ -1001,6 +1175,16 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>TRÉLISSAC (24750)</t>
         </is>
       </c>
@@ -1021,7 +1205,13 @@
           <t>CHATIGNY dit Lépine, Vincent. Né en 1646 (parents inconnus). Marié à Françoise Aubry, fi lle du Roy, née à Paris, à Ile-Percée (Qc), vers 1676. Décédé en mai 1715. (NR)</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Ile-Percée (Qc)</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
         <is>
           <t>BÉZENAC (24220)</t>
         </is>
@@ -1043,7 +1233,9 @@
           <t>CHAUSSÉ dit Lemaine, Pierre. Né vers 1651. Fils de Pierre Chaussé Lemaine et de Catherine Grola-Gauthier ou Groussa. Marié à Marie-Madeleine Sel, à l’Islet (Qc), le 24-08-1681. Contrat de mariage le 03-08-1681 (greff e Pierre Duquet). Plusieurs enfants. (NRJ.N. BIRABEN)</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
         <is>
           <t>MIALET (24450)</t>
         </is>
@@ -1065,7 +1257,13 @@
           <t>CHAVAUTEAU, Pierre. Marié à Anne-Marguerite Clergeau, à Kaskaskia (Qc), le 15-06-1723. On ne leurs connaît pas de descendance. (NR)</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Kaskaskia (Qc)</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
         <is>
           <t>DOUCHAPT (24350)</t>
         </is>
@@ -1089,6 +1287,16 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>Valeur introuvable</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Trois-Rivières (Qc)</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>LA CHAPELLE-GONAGUET (24350)</t>
         </is>
       </c>
@@ -1111,6 +1319,16 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>le lieu des Grimas</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>St-Charles-sur-Richelieu (Qc)</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>SAINT-MARCEL-DU-PÉRIGORD (24510)</t>
         </is>
       </c>
@@ -1131,7 +1349,13 @@
           <t>CLUSEAU dit Lorange, Jean. Soldat. Né en 1666. Fils de Guillaume Cluseau et de Jeanne Moreau. Marié à Anne Jamien, à Québec, le 06-09-1694. Quatorze enfants. Décédé à Québec, le 30-10-1750. Cité le 16-08-1694 en qualité de soldat de la garnison de Québec, tambour-major. On retrouve encore aujourd’hui une nombreuse descendance sous le nom de Lorange. (NR)</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
         <is>
           <t>NONTRON (24300)</t>
         </is>
@@ -1153,7 +1377,13 @@
           <t>COUSINEAU, Jean. Né vers 1662. Fils de Guy Cousineau et de Marie Pépuchon. Marié à Marie-Jeanne Besnard dite Lajeunesse, à Montréal (Qc), le 02-01-1690. Décédé à Montréal, le 22-12-1731. Il arrive au Canada vers 1688. C’est en 1708 que Jean Cousineau, maçon et tailleur de pierre vient s’établir à St-Laurent sur la côte de Notre-Dame-des-Vertus (Qc). Le couple aura neuf enfants, ceux-ci ont formé une partie de la population de Saint-Laurent. Quelques personnalités de cette ville sont issues de cette famille, notamment Hector Cousineau maire de la paroisse (1933-1943). Maurice Cousineau, maire de la ville (1950-1959) et Mgr Albert Cousineau supérieur du collège Saint-Laurent, curé de Saint-Laurent, puis supérieur de l’Oratoire Saint-Joseph. (NR-J.N. BIRABEN)</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Montréal</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
         <is>
           <t>JUMILHAC-LE-GRAND (24630)</t>
         </is>
@@ -1177,6 +1407,16 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
           <t>BELEYMAS (24310)</t>
         </is>
       </c>
@@ -1197,7 +1437,13 @@
           <t>DELGUEL ou DEZIEL dit Labrèche, Jean. Né vers 1641. Fils de Raymond Delguel et de Françoise Marty. Marié à Louise Vaucher, fi lle du Roy, à Notre-Dame de Québec, le 28-11-1668. Contrat de mariage 07-11-1668 (greffe Romain Bequet). Ils s’établissent à Charlesbourg (Qc). Décédé avant 1703 à Québec. Il arrive en Nouvelle- France avec le régiment de Carignan-Salière où il est adjoint au garde-magasin. Il aura une nombreuse descendance qui portera le nom de Labrèche. (NR)</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
         <is>
           <t>DOISSAT (24170)</t>
         </is>
@@ -1219,7 +1465,9 @@
           <t>DELGUEL dit Labrèche, Pierre. (frère du précédent). Né vers 1640. Comme lui parti de Doissat avec le régiment de Carignan-Salière. Marié à Jeanne Dunien (on ne connaît ni le lieu ni la date du mariage). Ses descendants conserveront toujours le nom de Delguel ou Déziel. (J.M.DÉZIEL-CGFA)</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
         <is>
           <t>DOISSAT (24170)</t>
         </is>
@@ -1243,6 +1491,16 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>Cap-de-la-Madeleine (Qc)</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Pensylvanie</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
           <t>ROUFFIGNAC-SAINT-CERNIN-DE-REILHAC (24580)</t>
         </is>
       </c>
@@ -1265,6 +1523,16 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
           <t>VANXAINS (24600)</t>
         </is>
       </c>
@@ -1285,7 +1553,9 @@
           <t>DESFORGES dit Saint-Maurice, Jean. Né vers 1654. Fils de Jean Desforges, maître charpentier et d’Anne Bernard. Marié à Marguerite Verdon, à Lachine (Qc), le 14-02-1689. Seize enfants. Il arrive en Nouvelle-France comme soldat dans les compagnies franches de Marine, compagnie du capitaine de Lorimier. On retrouve dans les descendants de Jean Desforges, un Antoine maître forgeron et un Paul maître serrurier. Leurs nombreux descendants assurent la continuité de la lignée. (Jean Desforges)</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
         <is>
           <t>SAINT-GEORGES-DE-MONTCLARD (24140)</t>
         </is>
@@ -1309,6 +1579,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>Cubas</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
           <t>CHERVEIX-CUBAS (24390)</t>
         </is>
       </c>
@@ -1331,6 +1607,16 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>Saint-Hilaire</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
           <t>SARRAZAC (24800)</t>
         </is>
       </c>
@@ -1351,7 +1637,13 @@
           <t>DUBORD dit Lafontaine, François-Guillien. Né vers 1636. Fils de Louis Dubord et de Françoise de la Brugière. Marié à Catherine Guérard, à Champlain (Qc), le 12-02-1670. Contrat de mariage le 12-02-1670 (greff e Guillaume de Larue). Dix enfants. Décédé à Champlain (Qc), paroisse Notre-Dame de la Visitation, le 02-04-1705. Il arrive à Québec le 12-09-1665, avec le régiment de Carignan-Salières. Il est tailleur et après le licenciement de son régiment, il se fi xe à Champlain. (NRJ.N. BIRABEN-MIGRATIONS.FR)</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Champlain (Qc), paroisse Notre-Dame de la Visitation</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
         <is>
           <t>THIVIERS (24380)</t>
         </is>
@@ -1375,6 +1667,16 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
           <t>BOURDEILLES (24310)</t>
         </is>
       </c>
@@ -1395,7 +1697,13 @@
           <t>DUMANS, Jean. Maître chapelier. Né vers 1647. Fils de Raymond Dumans, maître cuisinier et de Marguerite Couder. Marié à Aghate Morin, à Lachine (Qc), le 09-01-1684. Trois enfants mais pas de descendance. Décédé avant 1692. (NR-J.N. BIRABEN)</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Avant 1692</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
         <is>
           <t>SAINT-MARTIAL-D’ALBARÈDE (24160)</t>
         </is>
@@ -1419,6 +1727,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
+          <t>Le Hameau « Le Puy » à quelques kilomètres de Saint-Astier</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
           <t>SAINT-ASTIER (24110)</t>
         </is>
       </c>
@@ -1441,6 +1755,16 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>hameau le Coderre</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Contrecoeur (Qc)</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
           <t>SARRAZAC (24800)</t>
         </is>
       </c>
@@ -1461,7 +1785,13 @@
           <t>FAURE dit Saint-Vivien, Moïse. Né vers 1629. Fils Jean Faure et de Jeanne de La Porte. Marié à Marie Lépine, fi lle du Roy, à Québec, le 29-10-1677. Contrat de mariage, le 28-10-1677 (greff e Pierre Duquet). Soldat au régiment Carignan-Salières, compagnie de Laubias. Il abjure sa foi le 14-09-1665, à Québec. Ils eurent deux enfants, mais pas de descendance. Décédé à Sainte-Anne-de-la-Pérade (Qc), après 1692. (NR-J.N. BIRABEN)</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Sainte-Anne-de-la-Pérade (Qc)</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
         <is>
           <t>SAINT-VIVIEN (24230)</t>
         </is>
@@ -1485,6 +1815,16 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t>Saint-Martin</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Boucherville (Qc)</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
           <t>RIBÉRAC (24600)</t>
         </is>
       </c>
@@ -1505,7 +1845,9 @@
           <t>FERRÉ, Alain. Né en 1735. Fils de François Ferré et de Rose Jinac ou Tenac. Il est sergent au régiment du Berry. Marié à Marie-Josèphe Brassard, à Pointe-aux-Trembles (Qc), le 24-01-1760. Contrat de mariage le 21-04-1759 (greff e Christophe Hilarion). Pas de descendance. (NR-J.N. BIRABEN)</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
         <is>
           <t>SAINT-FRONT-D’ALEMPS (24460)</t>
         </is>
@@ -1529,6 +1871,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
+          <t>St-Pierre</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
           <t>DOUCHAPT (24350)</t>
         </is>
       </c>
@@ -1551,6 +1899,16 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>Saint-Michel</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Trois-Rivières (Qc)</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
           <t>LA ROCHE-CHALAIS (24340)</t>
         </is>
       </c>
@@ -1573,6 +1931,16 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>Saint-Laurent-Saint-Front</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Hôpital Général de Québec</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
           <t>BEAUMONT (24400)</t>
         </is>
       </c>
@@ -1595,6 +1963,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t>Fayrac</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
           <t>CASTELNAUD-LA-CHAPELLE (24250)</t>
         </is>
       </c>
@@ -1617,6 +1991,16 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t>Sarrazac</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Inconnu entre 1685 et 1694</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
           <t>SARRAZAC (24800)</t>
         </is>
       </c>
@@ -1639,6 +2023,16 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
+          <t>Paroisse Saint-Romain</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Île-d'Orléans (Qc)</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
           <t>LA ROCHEBEAUCOURT-ET-ARGENTINE (24340)</t>
         </is>
       </c>
@@ -1661,6 +2055,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
+          <t>paroisse Saint-Michel</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
           <t>LA ROCHE-CHALAIS (24340)</t>
         </is>
       </c>
@@ -1683,6 +2083,16 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Lachine (Qc)</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
           <t>MONTREM (24110)</t>
         </is>
       </c>
@@ -1705,6 +2115,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
+          <t>Saint-Silain</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
           <t>PÉRIGUEUX (24000)</t>
         </is>
       </c>
@@ -1725,7 +2141,13 @@
           <t>GRISÉ dit Villefranche, Antoine. Né vers 1690. Marié à Françoise-Marguerite Poyer, à Chambly (Qc), le 12-01-1728. Quatorze enfants. Il arrive en Nouvelle-France en 1721 comme caporal des troupes de Marine, compagnie de Péan. Il décède à Chambly, le 18-12-1781, à l’âge de 91 ans. C’est un arrière petit-fils d’Antoine, Pierre Grisé qui vendra des maisons, à Saint-Charles-sur-Richelieu, aux arrières petitsfi ls de Pierre Chicou-Duvert, Louis le notaire et François le médecin. (Voir Saint-Marcel-du-Périgord). (NR)</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Chambly (Qc)</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
         <is>
           <t>VILLEFRANCHE-DU-PÉRIGORD (24550)</t>
         </is>
@@ -1749,6 +2171,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
+          <t>Hameau du Mur</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
           <t>THIVIERS (24380)</t>
         </is>
       </c>
@@ -1771,6 +2199,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
+          <t>Thiviers</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
           <t>THIVIERS (24380)</t>
         </is>
       </c>
@@ -1793,6 +2227,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
+          <t>paroisse Saint-André</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
           <t>BERTRIC-BURÉE (24320)</t>
         </is>
       </c>
@@ -1813,7 +2253,13 @@
           <t>JACOTI dit Beausoleil, Jean. Né vers 1667. Fils de Pierre Jacoti et de Marie Bonnevico. Marié à Marie Massart, à Québec, le 18-02-1692. Ils n’auront que des fi lles. Décédé à Saint-Pierre, Ile-d’Orléans (Qc), le 13-12-1735. (NR-J.N. BIRABEN)</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Saint-Pierre, Ile-d’Orléans (Qc)</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
         <is>
           <t>SAINT-MARTIAL-D’ALBARÈDE (24160)</t>
         </is>
@@ -1837,6 +2283,16 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Boucherville (Qc)</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
           <t>MILHAC-D’AUBEROCHE (24330)</t>
         </is>
       </c>
@@ -1857,7 +2313,13 @@
           <t>JOYAL dit Bergerac, Jacques. Né vers 1640. Fils d’Etienne Joyal, maître armurier, et de Suzanne Masseau. Il apprend lui aussi le métier d’armurier. Marié à Lady Marie-Gertrude de Moral (Fille de Quentin de Moral lieutenant du Roi et Juge de la Cité des Trois-Rivières), à Trois-Rivières (Qc), le 10-11-1676. Contrat de mariage le 02-11-1676 (greff e Ameau). Ils eurent de nombreux enfants. Il réside à Saint-François-du-Lac où il décède le 26-03-1716, âgé de76 ans. A l’âge de 16 ans il part pour la Nouvelle-France avec les prêtres et les frères missionnaires. Il devient armurier dans la région de Trois-Rivières et en plus, sa tâche consistait à la fabrication d’ustensiles et autres objets pour les colons. Il semble qu’il ait appris plusieurs dialectes amérindiens des Pères jésuites, lui permettant ainsi de se déplacer dans les territoires indiens et les régions sauvages avec le Révérend Père Lemoyne. Il pratique également la traite des fourrures, ce qui avec la dot de son épouse, qui fut assez conséquente, lui permis de devenir rentier assez tôt. Ses descendants habitent toujours à St-François-du-Lac, mais aussi à Drummondville et à Montréal. (Plaque commémorative rue du port). (GÉNÉALOGIE DE SERGE JOYAL ET DIANE HENSCHEL)</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Saint-François-du-Lac</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
         <is>
           <t>BERGERAC (24100)</t>
         </is>
@@ -1879,7 +2341,13 @@
           <t>LACOMBE, Jean. Né vers 1648. Fils d’Etienne Lacombe et de Marguerite Leroux. Marié à Marie-Charlotte Millet, à Notre-Dame de Montréal (Qc), le 20-06-1678. Douze enfants. Jean Lacombe décède à quatre-vingtquatre ans, le 17-09-1732, à Rivièredes-Prairies (Qc). Il arrive en Nouvelle-France vers 1673, il s’est probablement embarqué à Bordeaux, car on ne retrouve pas traces de son embarquement à La Rochelle. Son épouse décèdera vingt ans plus tard en 1751. Ils résideront à Pointe-aux-Trembles (Qc). On retrouve à Saint-Cybranet et aux alen-tours plusieurs Lacombe depuis 1531. On peut noter un maréchal du port de Gaillardou, un procureur du roi de Domme, un juge royal, un maire et un prêtre, mais est-ce là, des parents de notre migrant, nous cherchons toujours. Au Bouscault plusieurs maisons ont appartenues à des Lacombe. (J.N. BIRABEN). (PLAQUE COMMÉMORATIVE)</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Rivièredes-Prairies (Qc)</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
         <is>
           <t>SAINT-CYBRANET (24350)</t>
         </is>
@@ -1903,6 +2371,16 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>L'Assomption (Qc)</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
           <t>VERGT (24380)</t>
         </is>
       </c>
@@ -1923,7 +2401,9 @@
           <t>GUEYRAUD, Jean. Soldat. Né vers 1724. Fils de Léonard Gueyraud et de Marguerite Malleville. Marié à Françoise Prêvot, à Notre-Dame de Québec, le 26-02-1759. Contrat de mariage le 25-02-1759 (greff e Claude Barolet). On peut noter que sur l’acte de mariage, tous les deux ont signés. Soldat de la compagnie de Vervier. (NR-J.N. BIRABEN)</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
         <is>
           <t>PÉRIGUEUX (24000)</t>
         </is>
@@ -1947,6 +2427,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
+          <t>paroisse Saint-Georges</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
           <t>PÉRIGUEUX (24000)</t>
         </is>
       </c>
@@ -1969,6 +2455,16 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
+          <t>Saint-Pierre</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Hôpital Général de Montréal</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
           <t>BRANTÔME (24310)</t>
         </is>
       </c>
@@ -1989,7 +2485,13 @@
           <t>LEGROS dit Saint-Laurent, Elie. Né vers 1708. Fils de Elie Legros, potier d’étain et de Madeleine Dufesny. Marié à Françoise Pépin, à Montréal (Qc), le 07-01-1738. Contrat de mariage le 06-01-1738 (notaire greff e Jean François Lepailleur). (NR-J.N. BIRABEN)</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Montréal (Qc)</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
         <is>
           <t>MAREUIL-SUR-BELLE (24340)</t>
         </is>
@@ -2011,7 +2513,13 @@
           <t>LESIÈGE dit Lafontaine, Pierre. Né vers 1636. Marié à Marguerite Laplace, fille du Roy (née vers 1659), à Sorel (Qc), vers 1672. Probablement après le 01-03-1671 (acte détruit). Elle a treize ans lors de son mariage avec Pierre Lesiège. Ils habitent Contrecoeur (Qc). Huit enfants. Pierre Lesiège décède à l’automne 1691, tué par les Iroquois (acte 24-10-1699 Deschambeault. Juridiction Royale Montréal). (NR-GÉNÉANET)</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Contrecoeur (Qc)</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
         <is>
           <t>SARLAT-LA-CANÉDA (24520)</t>
         </is>
@@ -2035,6 +2543,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
+          <t>Faurneau</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
           <t>RAZAC-SUR-L’ISLE (24430)</t>
         </is>
       </c>
@@ -2057,6 +2571,16 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>La Rochelle</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
           <t>ABJAT-SUR-BANDIAT (24300)</t>
         </is>
       </c>
@@ -2079,6 +2603,16 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Île-d'Orléans (Qc)</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
           <t>BERGERAC (24100)</t>
         </is>
       </c>
@@ -2101,6 +2635,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
+          <t>Périgueux</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
           <t>FOSSEMAGNE (24210)</t>
         </is>
       </c>
@@ -2123,6 +2663,16 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
           <t>MONTAGRIER (24350)</t>
         </is>
       </c>
@@ -2145,6 +2695,16 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Bellechasse (Qc)</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
           <t>BÉZENAC (24220)</t>
         </is>
       </c>
@@ -2165,7 +2725,9 @@
           <t>MERDIEU ou MEDIEU dit Bourdon, Jean. Né vers 1669. Fils de Louis Merdieu et d’Isabelle Dubois. Marié à Claudine Guérin, à Charlesbourg (Qc), le 06-02-1690. Contrat de mariage du 19-07-1690 (greff e Gilles Rageot). Ils eurent de nombreux enfants. (NR-J.N. BIRABEN)</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
         <is>
           <t>SAINT-FRONT-D’ALEMPS (24460)</t>
         </is>
@@ -2189,6 +2751,16 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
           <t>BERGERAC (24100)</t>
         </is>
       </c>
@@ -2211,6 +2783,16 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
           <t>BUSSEROLES (24360)</t>
         </is>
       </c>
@@ -2231,7 +2813,9 @@
           <t>MORTESEIGNE dit Labonté, Th omas. Né vers 1660. Fils de Jean Morteseigne et de Françoise Denizet. Marié à Françoise Saulnier, à Montréal (Qc), le 05-02-1690. Contrat de mariage le 14-12-1689 (greff e Bénigne Basset). Il est caporal de Crusol. (NR-J.N. BIRABEN)</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
         <is>
           <t>THIVIERS (24380)</t>
         </is>
@@ -2253,7 +2837,9 @@
           <t>NERVAUX dit Poitou, Nicolas. Marié à Marie Demers, à Montréal (Qc), le 14-08-1668. Contrat de mariage le 27-02-1670 (greff e Th omas Frérot). (NR)</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
         <is>
           <t>SAINT-AULAYE (24410)</t>
         </is>
@@ -2277,6 +2863,16 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
           <t>BERGERAC (24100)</t>
         </is>
       </c>
@@ -2299,6 +2895,16 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Montréal (Qc)</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
           <t>TOURTOIRAC (24390)</t>
         </is>
       </c>
@@ -2321,6 +2927,16 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
           <t>SAINT-CRÉPIN-D’AUBEROCHE (24330)</t>
         </is>
       </c>
@@ -2341,7 +2957,9 @@
           <t>PARSEILLE ou PARSALIER ou PARADIER dit Lachapelle, Etienne. Né vers 1678. Fils de Denis Parseille, (patronyme de la mère inconnu). Marié à Marie-Anne Edeline, à La Prairie (Qc), le 26-04-1706. Ils résident à Pointeaux-Trembles (Qc) et à Montréal (Qc). (NR)</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
         <is>
           <t>LA CHAPELLE-MONTABOURLET (24320)</t>
         </is>
@@ -2365,6 +2983,16 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
+          <t>Saint-Laurent</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Beaupré (Qc)</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
           <t>SOULAURES (24540)</t>
         </is>
       </c>
@@ -2385,7 +3013,9 @@
           <t>PASSERIEU dit Bonnefond, Pierre. Chirurgien. Né vers 1667. Fils de Cuillat Passerieu et de Guillemette Debreu. Marié à Marie-Th érèse Marais ou Marest, à Saint-François-du-Lac (Qc), le 16-11-1687. Sept enfants. Ont résidé successivement à Château Richer (Qc), Trois-Rivières (Qc) et Sorel (Qc). (NR-J.N. BIRABEN)</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
         <is>
           <t>CHALAIS (24800)</t>
         </is>
@@ -2409,6 +3039,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
+          <t>Notre-Dame des Vertus</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
           <t>NOTRE-DAME-DE-SANILHAC (24660)</t>
         </is>
       </c>
@@ -2429,7 +3065,13 @@
           <t>PERSON dit Lafond, Nicolas. Né vers 1675. Fils de Pierre Person et de Jeanne Ferand. Marié à Marie-Madeleine Vacher, à Montréal (Qc), le 23-11-1716. Ils eurent plusieurs enfants. Décédé à Montréal, le 30-01-1745. Descendance sous le patronyme de Lagfond. (NR-J.N. Biraven)</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Montréal, Qc</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
         <is>
           <t>ANLHIAC (24160)</t>
         </is>
@@ -2451,7 +3093,13 @@
           <t>PONTBRIANT (de), Claude. Date et lieu de naissance inconnus. Fils de Jean Pierre de Pontbriant et de Anne de Peyronenc. Célibataire. Décédé le 02-11-1536. Il découvrit l’Ile de Montréal avec Jacques Cartier. (Voir chapitre 1) (PLAQUE COMMÉMORATIVE)</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>02-11-1536</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
         <is>
           <t>ISSAC (24400)</t>
         </is>
@@ -2473,7 +3121,13 @@
           <t>POUGET dit Grisdelin, Jean. Maître tailleur d’habits. Né en 1671. Fils de Pierre Pouget et de Jeanne Roussel. Marié à Marthe Brossard, à Montréal (Qc), le 19-01-1699. Contrat de mariage 18-01-1699 (greff e Pierre Raimbault). Ils eurent plusieurs enfants. Il arrive en Nouvelle-France comme soldat de M. de La Grois. Il est toujours tailleur mais aussi doit avoir un commerce de textile et détenir certaines ressources puisqu’il devient propriétaire de plusieurs parcelles de terre dans le vieux Montréal. La propriété de Jean Pouget se confi rmera assez conséquente. Il décède à Montréal, le 29-01-1732, à l’âge de 61 ans. (NR-PRDH)</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Montréal</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
         <is>
           <t>VILLAMBLARD (24140)</t>
         </is>
@@ -2495,7 +3149,9 @@
           <t>RALLE dit Montauban, Jean. Fils de Jacques Ralle et de Marguerite. Marié à Gabrielle Lemaître, à Québec, le 02-10-1667. Contrat de mariage le 02-10-1667 (greff e Romain Bequet). Pas de descendant. (NR-J.N. BIRABEN)</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
         <is>
           <t>SAINT-SÉVERIN-D’ESTISSAC (24190)</t>
         </is>
@@ -2517,7 +3173,13 @@
           <t>RICHARD dit Larose, Bernard. Né vers 1680. Fils de Renaud Richard et de Pierrette Londé. Marié à Madeleine Reproche-Ducharme, à Québec, le 29-01-1714. Contrat de mariage 13-01-1714 (greff e Florent de Lacetière). Décédé à Québec, le 23-09-1714. Sans postérité. Il est soldat de M. de Rouville (NR-J.N. BIRABEN)</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
         <is>
           <t>SAINT-MARTIAL-D’ALBARÈDE (24160)</t>
         </is>
@@ -2539,7 +3201,9 @@
           <t>ROBIN, Pierre. Soldat. Né vers 1709. Fils de François Robin et de Marguerite Champou. Mariè à Marie- Jeanne-Elisabeth Bédard, à Québec, le 19-06-1747. Contrat de mariage 17-06-1747 (greff e Jacques Pinguet). Il était soldat de la compagnie de Caban. (PRDH)</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
         <is>
           <t>SAINT-PARDOUX-ET-VIELVIC (24170)</t>
         </is>
@@ -2561,7 +3225,9 @@
           <t>RODE, Pierre. Soldat. Né vers 1732. Fils de Emeric Rode et de Jeanne Lam-bert. Marié à Geneviève Guay, à Lévis (Qc), le 15-11-1757. Contrat de mariage le 11-11-1757 (greff e Simon Sanguinet). Ils résident à Lévis. (NRJ.N. BIRABEN)</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
         <is>
           <t>SIGOULÈS (24240)</t>
         </is>
@@ -2583,7 +3249,13 @@
           <t>ROUSSET dit Beaucourt, Pierre. Né vers 1643. Fils de Pierre Rousset et de Barbe Durand. Marié à Jeanne Chartier, fi lle du Roy, à Sainte-Famille, Iled’Orléans (Qc), le 03-11-1669. Contrat de mariage le 08-10-1669 (greff e Romain Becquet). Quatre enfants. Décédé à l’Hôtel Dieu de Québec, le 11-01-1695. Il arrive en Nouvelle-France le 19-08-1665, avec le régiment de Carignan-Salières, compagnie de Maximy. Il ira, comme beaucoup d’autres, construire des forts le long de la Richelieu. A la fi n de son engagement il décide de rester au pays. Il échangera à Martin Saint-Aignan ses terres de l’Ile-d’Orléans, contre les biens qu’il a hérités au décès de son père à La Rochebeaucourt, soit une maison Grand-Rue, des lopins de terre et une vigne. (DBQ-ANQ)</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Hôtel Dieu de Québec</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
         <is>
           <t>LA ROCHEBEAUCOURT-ET-ARGENTINE (24340)</t>
         </is>
@@ -2605,7 +3277,9 @@
           <t>SAINT-CHRISTOPHE (de) dit Lajoie, Christophe. Né vers 1702. Fils de Paul de Saint-Christophe dit Lajoie, laboureur, et de Marguerite Barrier. Marié à Marie-Françoise Valade dite Lajeunesse, à Montréal (Qc), le 22-11-1728. Soldat de Périgny, puis laboureur. On ne le retrouve plus après le 13-02-1730. Ils ont une fi lle, pas de descendance. (NR-J.N. BIRABEN)</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
         <is>
           <t>SAINT-MARTIAL-D’ALBARÈDE (24160)</t>
         </is>
@@ -2629,6 +3303,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
+          <t>Aubeterre</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Aubeterre</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
           <t>AUBETERRE-SUR-DRONNE (16390)</t>
         </is>
       </c>
@@ -2649,7 +3333,9 @@
           <t>TAMISSIER, Pierre. Fils de Jean Tamissier et de Marie-Anne Grinot. Marié à Marie-Josette Morin, à Pointe-de-Montréal (Qc), le 31-08-1768. (NR)</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
         <is>
           <t>SAINT-ANTOINE-DE-CUMOND (24440)</t>
         </is>
@@ -2673,6 +3359,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
+          <t>Valeur non spécifiée</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Valeur non spécifiée</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
           <t>MONTIGNAC (24290)</t>
         </is>
       </c>
@@ -2693,7 +3389,9 @@
           <t>TIROUET, François. Né vers 1720. Fils de Pierre Tirouet et de Marie Flouquet. Marié à 1) Marie-Th érése Amiot, à Québec, le 03-10-1776. 2) Marie Ouel, à Berthier-en-Bas (Qc), le 23-11-1767. (FG)</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
         <is>
           <t>SAINT-MARTIN-DE-FRESSENGEAS (24800)</t>
         </is>
@@ -2716,6 +3414,16 @@
         </is>
       </c>
       <c r="D104" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
         <is>
           <t>SAINT-MARTIAL-D’ALBARÈDE (24160)</t>
         </is>

--- a/data/outputs/dordogne/dordogne.xlsx
+++ b/data/outputs/dordogne/dordogne.xlsx
@@ -537,8 +537,16 @@
           <t>AUMAITRE ou OMAITRE ou HOMET dit Saint-Pierre, Pierre. Soldat. Fils de Géraud ou Girard Omaitre et de Marie-Antoinette Conte ou Lecompte. Marié à 1) Marie-Anne Paquet, à Québec, le 16-03-1757.Un enfant. 2) Marie-Josèphe Chamberlan, à Québec, le 19-11-1764. Contrat de mariage le 06-11-1764 (greff e Michel Lapailleur). Soldat du régiment de Guyenne, compagnie de Saint-Vincent. (NR-J.N. BIRABEN)</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>SAINT-RABIER (24210)</t>
@@ -561,8 +569,16 @@
           <t>BALAN dit Lacombe, Pierre. Né vers 1645. Fils de Pierre Balan et de Perrine Courier. Marié à Renée Biret, à Notre-Dame de Québec, le 09-06-1672. Ils eurent neuf enfants d’où encore aujourd’hui une nombreuse descendance au Québec qui porte le patronyme de Lacombe. Soldat au régiment de Carignan, compagnie La Brisardière. (NR-J.N. BIRABEN)</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>CANTILLAC (24530)</t>
@@ -587,7 +603,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Données inconnues</t>
+          <t>Non spécifié</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -651,7 +667,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>paroisse St-Antoine</t>
+          <t>St-Antoine</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -744,7 +760,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Contrecoeur</t>
+          <t>Contrecoeur (Qc)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -769,8 +785,16 @@
           <t>BENOIT, Anne. Fille de Jean Benoit et de Jeanne-Marie Périer. Elle devait épouser Louis Cussac qui devait arriver de France. Mais il n’est jamais venu au Canada. Marié à Antoine-Joseph Delbard dit Saint-Antoine, à Québec, le 11-01-1751. Contrat de mariage le 10-01-17 (greff e Claude Barolet). (NR)</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>SAINT-AULAYE (24410)</t>
@@ -855,7 +879,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>paroisse de la Limougeanne</t>
+          <t>La Limougeanne</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -997,8 +1021,16 @@
           <t>BUY dit Lavergne, Laurent. Né vers 1641. Fils de Pierre Buy et de Françoise (nom inconnu). Marié à Anthoine Denise, fi lle du Roy, à Champlain (Qc), le 11-10-1670. Contrat de mariage (greff e Larue). Il arrive en Nouvelle-France comme sergent du régiment de Carignan-Salières, compagnie de Saint-Ours. Après son décès, son épouse se remarie, avec un soldat de la même compagnie, Mathurin Banlier dit Laperle. (NR-J.N. BIRABEN)</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Valeur vide</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Valeur vide</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>SAINT-JEAN-DE-CÔLE (24800)</t>
@@ -1023,12 +1055,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Paroisse Saint-Jean</t>
+          <t>Saint-Jean</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Hôtel-Dieu de Québec</t>
+          <t>Québec, l’Hôtel-Dieu de Québec</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1083,7 +1115,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Eymet, France</t>
+          <t>Eymet</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -1116,7 +1148,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Non spécifié</t>
+          <t>Québec</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1141,11 +1173,7 @@
           <t>CHASTENAY ou CHATENET dit Laguine, Jean. Né vers 1644. Fils de Jean Châtenay et d’Antoinette Chastenay. Marié à 1) Jeanne Favard, à Batiscan (Qc) le 30-05-1689. Contrat de mariage le 29-05-1689 (greff e Charles Lesieur). Elle décède avant 1695. Sans enfant. 2) Marie-Angélique Laverdure, à Lothbinière (Qc), après 1695. Trois enfants. Il arrive en Nouvelle-France le 14-09-1665, il est soldat au régiment Carignan-Salières dans la compagnie de Saint-Ours. Décédé à l’Hôtel-Dieu de Québec, le 20-07-1707. (NR-J.N. BIRABEN)</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
           <t>Hôtel-Dieu de Québec</t>
@@ -1173,16 +1201,8 @@
           <t>CHATIGNON dit Lacouture, Philippe. Né vers 1702. Fils de Léger Châtignon et de Jeanne Cavillac. Marié à Marie-Louise Girarda, à Québec, le 30-01-1741. Contrat de mariage le 29-01-1741 (greff e Jacques Pinguet). Ils eurent plusieurs enfants, mais il n’y a eu qu’une descendance féminine. (NR-J.N. BIRABEN)</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
           <t>TRÉLISSAC (24750)</t>
@@ -1233,8 +1253,16 @@
           <t>CHAUSSÉ dit Lemaine, Pierre. Né vers 1651. Fils de Pierre Chaussé Lemaine et de Catherine Grola-Gauthier ou Groussa. Marié à Marie-Madeleine Sel, à l’Islet (Qc), le 24-08-1681. Contrat de mariage le 03-08-1681 (greff e Pierre Duquet). Plusieurs enfants. (NRJ.N. BIRABEN)</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Aucune information spécifiée</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Aucune information spécifiée</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr">
         <is>
           <t>MIALET (24450)</t>
@@ -1258,11 +1286,7 @@
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Kaskaskia (Qc)</t>
-        </is>
-      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
           <t>DOUCHAPT (24350)</t>
@@ -1287,7 +1311,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Valeur introuvable</t>
+          <t>Non spécifié</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1319,12 +1343,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>le lieu des Grimas</t>
+          <t>Grimas</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>St-Charles-sur-Richelieu (Qc)</t>
+          <t>St-Charles-sur-Richelieu</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1407,12 +1431,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Inconnu</t>
+          <t>Valeur manquante</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Inconnu</t>
+          <t>Valeur manquante</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1521,16 +1545,8 @@
           <t>DELUCY, Jean. Né vers 1726. Fils de Léonard Delucy et de Françoise Desforges. Marié à Marie-Josèphe Lecomte de Bellegarde, à Montréal (Qc), le 11-01-1752. Ils résident à Montréal, ils n’eurent qu’un fi ls, François né le 24-07-1757. (NR-J.N. BIRABEN)</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
           <t>VANXAINS (24600)</t>
@@ -1610,11 +1626,7 @@
           <t>Saint-Hilaire</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
           <t>SARRAZAC (24800)</t>
@@ -1697,7 +1709,11 @@
           <t>DUMANS, Jean. Maître chapelier. Né vers 1647. Fils de Raymond Dumans, maître cuisinier et de Marguerite Couder. Marié à Aghate Morin, à Lachine (Qc), le 09-01-1684. Trois enfants mais pas de descendance. Décédé avant 1692. (NR-J.N. BIRABEN)</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>Avant 1692</t>
@@ -1727,7 +1743,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Le Hameau « Le Puy » à quelques kilomètres de Saint-Astier</t>
+          <t>Hameau « Le Puy » à quelques kilomètres de Saint-Astier</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -1755,7 +1771,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>hameau le Coderre</t>
+          <t>le Coderre</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1815,7 +1831,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Saint-Martin</t>
+          <t>Paroisse Saint-Martin</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1845,8 +1861,16 @@
           <t>FERRÉ, Alain. Né en 1735. Fils de François Ferré et de Rose Jinac ou Tenac. Il est sergent au régiment du Berry. Marié à Marie-Josèphe Brassard, à Pointe-aux-Trembles (Qc), le 24-01-1760. Contrat de mariage le 21-04-1759 (greff e Christophe Hilarion). Pas de descendance. (NR-J.N. BIRABEN)</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr">
         <is>
           <t>SAINT-FRONT-D’ALEMPS (24460)</t>
@@ -1871,7 +1895,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>St-Pierre</t>
+          <t>paroisse St-Pierre</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -1899,7 +1923,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Saint-Michel</t>
+          <t>Paroisse Saint-Michel</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1996,7 +2020,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Inconnu entre 1685 et 1694</t>
+          <t>Inconnu</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2023,7 +2047,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Paroisse Saint-Romain</t>
+          <t>Saint-Romain</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2055,7 +2079,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>paroisse Saint-Michel</t>
+          <t>Paroisse Saint-Michel</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -2081,11 +2105,7 @@
           <t>GOURDON dit Lachasse, Jean. Soldat. Né en 1654. Fils de Elie Gourdon et de Jeanne Dumole. Marié à Michelle Perrin, à Montréal (Qc), le 24-11-1676. Contrat de mariage 08-11-1676 (greff e Bénigne Basset). Ils n’eurent que des fi lles (pas de descendance). Il fut tué le 26-06-1691 par les Iroquois à Lachine (Qc). Soldat du régiment de Carignan-Salières compagnie de Maximy. (NR-J.N. BIRABEN)</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
           <t>Lachine (Qc)</t>
@@ -2144,7 +2164,7 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Chambly (Qc)</t>
+          <t>Chambly</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2171,7 +2191,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Hameau du Mur</t>
+          <t>hameau du Mur</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -2227,7 +2247,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>paroisse Saint-André</t>
+          <t>Paroisse Saint-André</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -2281,11 +2301,7 @@
           <t>JOACHIM dit Laverdure, Bernard. Né vers 1649. Fils de Durand Joachim et de Jeanne Dupuis. Marié à Marguerite Pépin, à Trois-Rivières (Qc), le 14-11-1679. Décédé à Boucherville (Qc), le 28-02-1727. Ils eurent de nombreux enfants. Ses descendants portent aujourd’hui le nom de Laverdure. (NR-J.N. BIRABEN)</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
           <t>Boucherville (Qc)</t>
@@ -2427,10 +2443,14 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>paroisse Saint-Georges</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr"/>
+          <t>Paroisse Saint-Georges</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Valeur vide</t>
+        </is>
+      </c>
       <c r="F69" t="inlineStr">
         <is>
           <t>PÉRIGUEUX (24000)</t>
@@ -2455,7 +2475,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Saint-Pierre</t>
+          <t>Paroisse Saint-Pierre</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2485,7 +2505,11 @@
           <t>LEGROS dit Saint-Laurent, Elie. Né vers 1708. Fils de Elie Legros, potier d’étain et de Madeleine Dufesny. Marié à Françoise Pépin, à Montréal (Qc), le 07-01-1738. Contrat de mariage le 06-01-1738 (notaire greff e Jean François Lepailleur). (NR-J.N. BIRABEN)</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Avec les informations disponibles, il n'est pas possible de déterminer exactement le lieu de naissance ou baptême d'Elie Legros dit Saint-Laurent.</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr">
         <is>
           <t>Montréal (Qc)</t>
@@ -2571,7 +2595,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Non spécifié</t>
+          <t>Inconnu</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2601,11 +2625,7 @@
           <t>MARTIN dit Ladouceur, Pierre. Né en 1666. Fils de Jean Baptiste Martin et d’Anne Desmoulins. Marié à Anne Limousin dite Baufort, à Montréal (Qc), le 12-09-1696. Contrat de mariage le 24-06-1695 (greff e Daniel Normandin). Onze enfants. Décèdè le 04-05-1742, à l’Ile-d’Orléans (Qc), à 76 ans. Engagé comme soldat de la compagnie du sieur Dumesnil, il part avec son régiment au Canada en 1684. Il participe aux milices d’auto-défense dans les villages. La nombreuse descendance du couple perpétue jusqu’à nos jours le nom de Martin. (Plaque commémorative rue du port). (NR-J.N. BIRABEN-LOUISE MARTIN)</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
+      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
           <t>Île-d'Orléans (Qc)</t>
@@ -2663,7 +2683,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Non spécifié</t>
+          <t>Baptisé à Québec</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2725,8 +2745,16 @@
           <t>MERDIEU ou MEDIEU dit Bourdon, Jean. Né vers 1669. Fils de Louis Merdieu et d’Isabelle Dubois. Marié à Claudine Guérin, à Charlesbourg (Qc), le 06-02-1690. Contrat de mariage du 19-07-1690 (greff e Gilles Rageot). Ils eurent de nombreux enfants. (NR-J.N. BIRABEN)</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
       <c r="F79" t="inlineStr">
         <is>
           <t>SAINT-FRONT-D’ALEMPS (24460)</t>
@@ -2751,12 +2779,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Inconnu</t>
+          <t>Non spécifié</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Inconnu</t>
+          <t>Non spécifié</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -2783,12 +2811,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Inconnu</t>
+          <t>Non spécifié</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Inconnu</t>
+          <t>Non spécifié</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -2863,12 +2891,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Inconnu</t>
+          <t>Don't have specific information</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Inconnu</t>
+          <t>Don't have specific information</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -2927,12 +2955,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Non spécifié</t>
+          <t>Inconnu</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Non spécifié</t>
+          <t>Inconnu</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3068,7 +3096,7 @@
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Montréal, Qc</t>
+          <t>Montréal (Qc)</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3277,8 +3305,16 @@
           <t>SAINT-CHRISTOPHE (de) dit Lajoie, Christophe. Né vers 1702. Fils de Paul de Saint-Christophe dit Lajoie, laboureur, et de Marguerite Barrier. Marié à Marie-Françoise Valade dite Lajeunesse, à Montréal (Qc), le 22-11-1728. Soldat de Périgny, puis laboureur. On ne le retrouve plus après le 13-02-1730. Ils ont une fi lle, pas de descendance. (NR-J.N. BIRABEN)</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
       <c r="F99" t="inlineStr">
         <is>
           <t>SAINT-MARTIAL-D’ALBARÈDE (24160)</t>
@@ -3303,7 +3339,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Aubeterre</t>
+          <t>Non spécifié</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3359,12 +3395,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Valeur non spécifiée</t>
+          <t>Non spécifié</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Valeur non spécifiée</t>
+          <t>Non spécifié</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -3420,7 +3456,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Non spécifié</t>
+          <t>Longueuil (Qc)</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
